--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 23,56</t>
+          <t>8,04; 23,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,62; 61,33</t>
+          <t>41,35; 61,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,09; 55,98</t>
+          <t>34,05; 55,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 25,1</t>
+          <t>8,39; 25,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 21,96</t>
+          <t>9,16; 22,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,72; 59,29</t>
+          <t>36,66; 58,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 59,89</t>
+          <t>41,19; 60,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 29,74</t>
+          <t>16,63; 28,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 20,55</t>
+          <t>10,24; 20,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,69; 57,04</t>
+          <t>42,43; 56,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,87; 55,1</t>
+          <t>40,48; 55,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 25,51</t>
+          <t>15,08; 24,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 27,6</t>
+          <t>19,88; 27,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,16; 57,45</t>
+          <t>48,37; 57,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,63; 54,51</t>
+          <t>45,2; 55,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,91; 30,81</t>
+          <t>21,87; 31,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,13; 32,01</t>
+          <t>23,78; 32,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,04; 60,96</t>
+          <t>52,48; 61,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,46; 52,71</t>
+          <t>43,53; 53,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,67; 29,78</t>
+          <t>21,41; 29,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,67</t>
+          <t>23,34; 29,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 58,46</t>
+          <t>51,24; 58,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,51; 52,17</t>
+          <t>45,56; 52,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,38</t>
+          <t>23,49; 29,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 25,96</t>
+          <t>19,87; 26,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,17; 58,7</t>
+          <t>50,98; 58,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,16; 47,14</t>
+          <t>40,15; 47,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 31,29</t>
+          <t>23,6; 31,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,81</t>
+          <t>22,71; 28,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,11; 60,16</t>
+          <t>53,03; 59,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,95</t>
+          <t>46,19; 52,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,5; 37,41</t>
+          <t>31,49; 37,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 26,77</t>
+          <t>22,29; 26,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 58,32</t>
+          <t>52,83; 58,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,35; 49,33</t>
+          <t>44,23; 49,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,6</t>
+          <t>28,82; 33,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 24,79</t>
+          <t>17,59; 25,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,7; 59,43</t>
+          <t>50,55; 59,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,98; 38,34</t>
+          <t>30,37; 38,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 27,08</t>
+          <t>18,84; 27,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 29,07</t>
+          <t>22,28; 28,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 62,06</t>
+          <t>54,07; 61,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 45,29</t>
+          <t>37,38; 45,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 62,59</t>
+          <t>22,62; 64,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,21</t>
+          <t>21,03; 26,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,74; 59,61</t>
+          <t>53,58; 59,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,64</t>
+          <t>34,77; 40,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 50,59</t>
+          <t>22,78; 49,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,25</t>
+          <t>18,33; 24,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,53; 48,78</t>
+          <t>41,51; 49,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,49; 43,87</t>
+          <t>36,25; 43,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 24,13</t>
+          <t>18,13; 24,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 30,41</t>
+          <t>24,25; 30,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,37; 51,76</t>
+          <t>44,98; 51,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,27; 51,13</t>
+          <t>43,92; 51,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,48</t>
+          <t>21,94; 27,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,47; 26,88</t>
+          <t>22,46; 26,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,37; 49,17</t>
+          <t>44,35; 49,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,02; 47,14</t>
+          <t>41,8; 46,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,01; 25,0</t>
+          <t>21,06; 25,31</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,2; 23,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>50,03; 53,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,67; 43,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 25,85</t>
+          <t>22,02; 25,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,38; 27,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,29; 56,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,08; 48,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,35</t>
+          <t>27,04; 39,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>22,92; 25,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,66; 54,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,19; 45,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,43</t>
+          <t>25,55; 33,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 23,81</t>
+          <t>8,3; 23,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,35; 61,62</t>
+          <t>41,72; 61,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,05; 55,07</t>
+          <t>33,61; 55,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 22,58</t>
+          <t>9,27; 22,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 58,07</t>
+          <t>39,62; 60,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 60,72</t>
+          <t>39,82; 60,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,56</t>
+          <t>10,39; 19,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,43; 56,37</t>
+          <t>43,06; 57,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,48; 55,28</t>
+          <t>39,76; 54,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 27,66</t>
+          <t>19,72; 27,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,37; 57,22</t>
+          <t>48,84; 57,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 55,2</t>
+          <t>44,41; 54,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,78; 32,04</t>
+          <t>23,67; 31,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,48; 61,35</t>
+          <t>52,17; 60,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,53; 53,07</t>
+          <t>43,7; 52,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 29,06</t>
+          <t>23,11; 28,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,24; 58,22</t>
+          <t>51,64; 58,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,56; 52,55</t>
+          <t>45,3; 52,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,87; 26,31</t>
+          <t>19,57; 25,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,98; 58,25</t>
+          <t>51,27; 58,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,15; 47,3</t>
+          <t>39,58; 47,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 28,83</t>
+          <t>22,93; 29,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,03; 59,69</t>
+          <t>53,06; 59,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,19; 52,9</t>
+          <t>45,91; 52,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 26,59</t>
+          <t>22,12; 26,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>52,83; 58,02</t>
+          <t>53,14; 57,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,23; 49,39</t>
+          <t>44,21; 49,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 25,09</t>
+          <t>17,64; 24,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 59,26</t>
+          <t>51,2; 60,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 38,24</t>
+          <t>30,25; 38,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 28,87</t>
+          <t>22,24; 29,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,07; 61,63</t>
+          <t>53,85; 61,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,38; 45,23</t>
+          <t>37,03; 45,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 26,14</t>
+          <t>20,67; 25,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,58; 59,5</t>
+          <t>53,67; 59,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 40,79</t>
+          <t>35,31; 40,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,62</t>
+          <t>18,3; 24,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,51; 49,0</t>
+          <t>41,25; 48,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,25; 43,71</t>
+          <t>36,04; 43,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,25; 30,31</t>
+          <t>24,09; 30,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,98; 51,54</t>
+          <t>44,97; 51,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,92; 51,17</t>
+          <t>44,1; 51,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,46; 26,83</t>
+          <t>22,69; 26,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,35; 49,3</t>
+          <t>44,24; 49,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41,8; 46,83</t>
+          <t>42,03; 47,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,55</t>
+          <t>20,26; 23,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,03; 53,87</t>
+          <t>49,81; 53,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,67; 43,69</t>
+          <t>39,43; 43,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 27,69</t>
+          <t>24,67; 27,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,29; 56,03</t>
+          <t>52,33; 56,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,08; 48,89</t>
+          <t>45,1; 49,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,92; 25,37</t>
+          <t>23,04; 25,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,66; 54,35</t>
+          <t>51,69; 54,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>43,19; 45,93</t>
+          <t>43,05; 45,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 23,02</t>
+          <t>8,86; 23,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,72; 61,44</t>
+          <t>40,62; 61,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,61; 55,28</t>
+          <t>34,09; 55,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 25,19</t>
+          <t>8,76; 25,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 22,24</t>
+          <t>8,44; 21,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,62; 60,03</t>
+          <t>37,72; 59,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,82; 60,02</t>
+          <t>39,17; 59,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 28,68</t>
+          <t>16,86; 29,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,87</t>
+          <t>10,41; 20,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,06; 57,44</t>
+          <t>42,69; 57,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,76; 54,71</t>
+          <t>40,87; 55,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 24,8</t>
+          <t>15,13; 25,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,71</t>
+          <t>19,39; 27,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,84; 57,68</t>
+          <t>48,16; 57,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,41; 54,34</t>
+          <t>44,63; 54,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 31,22</t>
+          <t>21,91; 30,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 31,95</t>
+          <t>24,13; 32,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,17; 60,98</t>
+          <t>52,04; 60,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,7; 52,74</t>
+          <t>43,46; 52,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 29,75</t>
+          <t>21,67; 29,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,73</t>
+          <t>23,3; 28,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,64; 58,02</t>
+          <t>51,82; 58,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,3; 52,2</t>
+          <t>45,51; 52,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 29,38</t>
+          <t>23,16; 29,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,77</t>
+          <t>19,86; 25,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,27; 58,62</t>
+          <t>51,17; 58,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,58; 47,11</t>
+          <t>40,16; 47,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 31,34</t>
+          <t>23,5; 31,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,16</t>
+          <t>22,57; 28,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,06; 59,63</t>
+          <t>53,11; 60,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,91; 52,88</t>
+          <t>46,3; 52,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,11</t>
+          <t>31,5; 37,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 26,47</t>
+          <t>22,23; 26,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,14; 57,91</t>
+          <t>53,29; 58,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,21; 49,28</t>
+          <t>44,35; 49,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,82; 33,49</t>
+          <t>28,67; 33,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,79</t>
+          <t>17,67; 24,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,2; 60,06</t>
+          <t>50,7; 59,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 38,65</t>
+          <t>29,98; 38,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 27,03</t>
+          <t>19,0; 27,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 29,04</t>
+          <t>21,78; 29,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,85; 61,86</t>
+          <t>54,12; 62,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,03; 45,03</t>
+          <t>37,29; 45,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 64,03</t>
+          <t>23,12; 62,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 25,92</t>
+          <t>20,8; 26,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,67; 59,65</t>
+          <t>53,74; 59,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,31; 40,8</t>
+          <t>34,89; 40,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,78; 49,86</t>
+          <t>22,57; 50,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 24,37</t>
+          <t>17,94; 24,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,25; 48,8</t>
+          <t>41,53; 48,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,04; 43,65</t>
+          <t>36,49; 43,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,32</t>
+          <t>17,45; 24,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,09; 30,37</t>
+          <t>24,3; 30,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,97; 51,78</t>
+          <t>45,37; 51,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 51,44</t>
+          <t>44,27; 51,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,94; 27,76</t>
+          <t>21,97; 27,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,69; 26,89</t>
+          <t>22,47; 26,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,24; 49,49</t>
+          <t>44,37; 49,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,03; 47,07</t>
+          <t>42,02; 47,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,06; 25,31</t>
+          <t>21,01; 25,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,26; 23,58</t>
+          <t>20,06; 23,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,81; 53,81</t>
+          <t>49,73; 53,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,43; 43,5</t>
+          <t>39,59; 43,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,87</t>
+          <t>21,96; 25,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,99</t>
+          <t>24,55; 27,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,33; 56,06</t>
+          <t>52,37; 55,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,09</t>
+          <t>45,03; 48,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,04; 39,87</t>
+          <t>27,01; 39,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,04; 25,22</t>
+          <t>23,05; 25,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,69; 54,36</t>
+          <t>51,58; 54,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>43,05; 45,82</t>
+          <t>43,03; 45,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,25</t>
+          <t>25,41; 33,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 23,56</t>
+          <t>18,74; 25,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,62; 61,33</t>
+          <t>48,61; 57,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,09; 55,98</t>
+          <t>44,33; 53,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 25,1</t>
+          <t>19,83; 28,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 21,96</t>
+          <t>22,35; 29,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,72; 59,29</t>
+          <t>50,94; 59,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 59,89</t>
+          <t>44,63; 53,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 29,74</t>
+          <t>17,33; 27,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 20,55</t>
+          <t>21,71; 26,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,69; 57,04</t>
+          <t>51,03; 57,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,87; 55,1</t>
+          <t>45,53; 51,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 25,51</t>
+          <t>19,78; 26,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>56,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 27,6</t>
+          <t>19,86; 25,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,16; 57,45</t>
+          <t>51,17; 58,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,63; 54,51</t>
+          <t>40,16; 47,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,91; 30,81</t>
+          <t>22,15; 29,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,13; 32,01</t>
+          <t>22,57; 28,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,04; 60,96</t>
+          <t>53,11; 60,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,46; 52,71</t>
+          <t>46,3; 52,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,67; 29,78</t>
+          <t>30,63; 36,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,67</t>
+          <t>22,23; 26,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 58,46</t>
+          <t>53,29; 58,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,51; 52,17</t>
+          <t>44,35; 49,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,38</t>
+          <t>27,43; 32,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,88%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,54%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>34,6%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 25,96</t>
+          <t>17,67; 24,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,17; 58,7</t>
+          <t>50,7; 59,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,16; 47,14</t>
+          <t>29,98; 38,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 31,29</t>
+          <t>18,21; 26,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,81</t>
+          <t>21,78; 29,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,11; 60,16</t>
+          <t>54,12; 62,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,95</t>
+          <t>37,29; 45,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,5; 37,41</t>
+          <t>20,93; 74,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 26,77</t>
+          <t>20,8; 26,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 58,32</t>
+          <t>53,74; 59,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,35; 49,33</t>
+          <t>34,89; 40,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,6</t>
+          <t>21,15; 61,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>44,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>21,36%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 24,79</t>
+          <t>17,94; 24,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,7; 59,43</t>
+          <t>41,53; 48,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,98; 38,34</t>
+          <t>36,49; 43,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 27,08</t>
+          <t>16,82; 23,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 29,07</t>
+          <t>24,3; 30,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 62,06</t>
+          <t>45,37; 51,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 45,29</t>
+          <t>44,27; 51,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 62,59</t>
+          <t>16,57; 25,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,21</t>
+          <t>22,47; 26,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,74; 59,61</t>
+          <t>44,37; 49,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,64</t>
+          <t>42,02; 47,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 50,59</t>
+          <t>17,63; 23,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>53,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,25</t>
+          <t>20,06; 23,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,53; 48,78</t>
+          <t>49,73; 53,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,49; 43,87</t>
+          <t>39,59; 43,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 24,13</t>
+          <t>20,99; 24,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 30,41</t>
+          <t>24,55; 27,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,37; 51,76</t>
+          <t>52,37; 55,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,27; 51,13</t>
+          <t>45,03; 48,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,48</t>
+          <t>24,81; 45,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,47; 26,88</t>
+          <t>23,05; 25,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,37; 49,17</t>
+          <t>51,58; 54,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,02; 47,14</t>
+          <t>43,03; 45,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,01; 25,0</t>
+          <t>23,83; 38,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>21,83%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>51,8%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>41,62%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,87%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>54,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>46,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>24,18%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>53,06%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>44,51%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>27,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>20,06; 23,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>49,73; 53,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>39,59; 43,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,96; 25,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>24,55; 27,77</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>52,37; 55,84</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>45,03; 48,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>27,01; 39,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>23,05; 25,45</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>51,58; 54,35</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>43,03; 45,77</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>25,41; 33,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,74; 25,83</t>
+          <t>18,41; 25,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,61; 57,13</t>
+          <t>49,0; 57,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,33; 53,2</t>
+          <t>43,97; 53,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,83; 28,14</t>
+          <t>20,28; 28,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,53</t>
+          <t>22,66; 29,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,94; 59,59</t>
+          <t>51,29; 59,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,63; 53,67</t>
+          <t>44,07; 52,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 27,54</t>
+          <t>17,81; 27,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 26,71</t>
+          <t>21,79; 26,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,03; 57,09</t>
+          <t>51,2; 57,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,53; 51,46</t>
+          <t>45,49; 51,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,77</t>
+          <t>20,38; 26,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,86; 25,96</t>
+          <t>19,69; 25,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,17; 58,7</t>
+          <t>51,24; 58,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,16; 47,14</t>
+          <t>40,13; 47,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 29,88</t>
+          <t>22,07; 29,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,81</t>
+          <t>23,15; 28,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,11; 60,16</t>
+          <t>53,12; 59,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,95</t>
+          <t>46,33; 52,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,63; 36,35</t>
+          <t>30,65; 36,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 26,77</t>
+          <t>21,97; 26,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,29; 58,32</t>
+          <t>53,33; 58,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,35; 49,33</t>
+          <t>44,42; 49,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,28</t>
+          <t>27,73; 32,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 24,79</t>
+          <t>17,63; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,7; 59,43</t>
+          <t>50,57; 59,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,98; 38,34</t>
+          <t>29,94; 38,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 26,13</t>
+          <t>17,88; 26,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,78; 29,07</t>
+          <t>22,02; 29,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,12; 62,06</t>
+          <t>53,75; 62,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 45,29</t>
+          <t>36,85; 45,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,93; 74,08</t>
+          <t>20,9; 73,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,21</t>
+          <t>21,14; 26,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 59,61</t>
+          <t>53,61; 59,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,64</t>
+          <t>35,11; 40,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,15; 61,66</t>
+          <t>21,05; 59,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,25</t>
+          <t>18,06; 24,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,53; 48,78</t>
+          <t>41,26; 48,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,49; 43,87</t>
+          <t>36,89; 43,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,32</t>
+          <t>17,2; 23,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,3; 30,41</t>
+          <t>23,94; 30,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,37; 51,76</t>
+          <t>44,92; 51,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,27; 51,13</t>
+          <t>44,17; 51,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,42</t>
+          <t>17,47; 25,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 26,88</t>
+          <t>22,52; 26,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,37; 49,17</t>
+          <t>44,16; 49,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,02; 47,14</t>
+          <t>42,08; 47,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 23,49</t>
+          <t>18,1; 23,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,24; 23,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>49,81; 53,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,52; 43,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,99; 24,78</t>
+          <t>21,13; 24,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,72; 27,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,36; 55,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,1; 48,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,81; 45,15</t>
+          <t>25,01; 46,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>23,03; 25,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,69; 54,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,1; 45,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,83; 38,73</t>
+          <t>23,99; 38,28</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas que requieren dedicación o cuidados especiales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117218</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>311445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>246464</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101088</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>151887</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>340952</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>271713</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>136452</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>269105</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>652397</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>518177</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>237541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97656; 136251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>288442; 335629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>222626; 268828</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85895; 119802</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>133137; 176196</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>316419; 366594</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>246350; 292163</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101643; 157868</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>243620; 300766</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>617234; 687794</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>484634; 551009</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>202702; 264475</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>169517</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>451281</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>331500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>163817</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>218295</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>518653</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>445382</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>249692</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>387812</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>969934</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>776882</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>413509</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>147235; 193836</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>421377; 481133</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>305508; 360351</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>140914; 187832</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>195949; 244536</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>488176; 547896</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>417219; 475369</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>228710; 271332</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>350199; 421187</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>928702; 1013787</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>738281; 821186</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>383929; 448559</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>108294</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>324591</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>186804</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106376</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>148632</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>398506</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>262132</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>333130</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>256926</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>723096</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>448936</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>439505</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90597; 129184</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>297808; 349394</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>163619; 209630</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87126; 127601</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>128339; 170075</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>369923; 427255</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>235832; 288178</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>163599; 578370</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>231801; 286343</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>684711; 758764</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>416487; 482215</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>267369; 756915</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>336332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>275351</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>124889</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>233706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>444338</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>407590</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>185687</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>376768</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>780670</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>682941</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>310576</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>121507; 165082</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>308810; 364763</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>252628; 300574</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>106622; 145667</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>205025; 258727</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>412987; 473739</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>377075; 437486</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>145719; 214895</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>344286; 409924</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>736406; 817812</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>647463; 726228</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>263167; 346920</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>538090</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1423649</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1040119</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>496170</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>752521</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1702448</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1386818</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>904961</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1290610</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3126097</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2426937</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1401131</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>498707; 579750</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1368979; 1478154</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>987571; 1086042</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>458338; 541364</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>710346; 800129</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1645976; 1756874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1331846; 1444516</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>733652; 1372674</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1229084; 1358587</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3045590; 3212455</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2350037; 2502291</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1224278; 1953711</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>